--- a/prot/356379915/Переход трубопровода через р. Енисей/OCR/1067.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/OCR/1067.xlsx
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>1.049407646723147</v>
+        <v>1.050871866906633</v>
       </c>
       <c r="E28" s="12" t="n"/>
       <c r="F28" s="31" t="n"/>
@@ -3356,43 +3356,43 @@
         <v>0.0125</v>
       </c>
       <c r="O28" s="81" t="n">
-        <v>1.303887520476732</v>
+        <v>1.307996028472843</v>
       </c>
       <c r="P28" s="81" t="n">
-        <v>0.4032970233405227</v>
+        <v>0.4027230868625842</v>
       </c>
       <c r="Q28" s="81" t="n">
-        <v>0.9266579985585059</v>
+        <v>0.9302264963886833</v>
       </c>
       <c r="R28" s="81" t="n">
-        <v>0.4032970233405227</v>
+        <v>0.4027230868625842</v>
       </c>
       <c r="S28" s="81" t="n">
-        <v>0.9266579985585059</v>
+        <v>0.9302264963886833</v>
       </c>
       <c r="T28" s="81" t="n">
-        <v>0.4032970233405227</v>
+        <v>0.4027230868625842</v>
       </c>
       <c r="U28" s="81" t="n">
-        <v>0.9266579985585059</v>
+        <v>0.9302264963886833</v>
       </c>
       <c r="V28" s="81" t="n">
-        <v>0.7334008721098624</v>
+        <v>0.735317274206018</v>
       </c>
       <c r="W28" s="81" t="n">
-        <v>0.9081335720024537</v>
+        <v>0.9116617860615586</v>
       </c>
       <c r="X28" s="81" t="n">
-        <v>0.7334008721098624</v>
+        <v>0.735317274206018</v>
       </c>
       <c r="Y28" s="81" t="n">
-        <v>0.9081335720024537</v>
+        <v>0.9116617860615586</v>
       </c>
       <c r="Z28" s="81" t="n">
         <v>0.0125</v>
       </c>
       <c r="AA28" s="81" t="n">
-        <v>1.141877982259071</v>
+        <v>1.144381567488916</v>
       </c>
       <c r="AB28" s="81" t="n"/>
       <c r="AC28" s="81" t="n"/>
@@ -3410,10 +3410,10 @@
         <v>0.025</v>
       </c>
       <c r="C29" s="35" t="n">
-        <v>0.02409159679850168</v>
+        <v>0.02339434909207966</v>
       </c>
       <c r="D29" s="23" t="n">
-        <v>1.032543528964195</v>
+        <v>1.034495822542177</v>
       </c>
       <c r="E29" s="12" t="n"/>
       <c r="F29" s="31" t="n"/>
@@ -3427,34 +3427,34 @@
         <v>6.4</v>
       </c>
       <c r="O29" s="81" t="n">
-        <v>0.69758507693726</v>
+        <v>0.7011934494385538</v>
       </c>
       <c r="P29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="Q29" s="81" t="n">
-        <v>0.9266579985585059</v>
+        <v>0.9302264963886833</v>
       </c>
       <c r="R29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="S29" s="81" t="n">
-        <v>0.9269122760971518</v>
+        <v>0.9304357056687993</v>
       </c>
       <c r="T29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="U29" s="81" t="n">
-        <v>0.9271665536357976</v>
+        <v>0.9306449149489152</v>
       </c>
       <c r="V29" s="81" t="n">
-        <v>0.7334008721098624</v>
+        <v>0.735317274206018</v>
       </c>
       <c r="W29" s="81" t="n">
-        <v>0.9081335720024537</v>
+        <v>0.9116617860615586</v>
       </c>
       <c r="X29" s="81" t="n">
-        <v>0.7334008721098624</v>
+        <v>0.735317274206018</v>
       </c>
       <c r="Y29" s="81" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>4.00625</v>
       </c>
       <c r="AA29" s="81" t="n">
-        <v>0.784418642802557</v>
+        <v>0.7885450704543392</v>
       </c>
       <c r="AB29" s="81" t="n"/>
       <c r="AC29" s="81" t="n"/>
@@ -3481,10 +3481,10 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="35" t="n">
-        <v>0.03212212906466891</v>
+        <v>0.03119246545610621</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>1.035826793782275</v>
+        <v>1.038493617002638</v>
       </c>
       <c r="E30" s="12" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -3498,34 +3498,34 @@
         <v>8</v>
       </c>
       <c r="O30" s="81" t="n">
-        <v>0.6758977668734584</v>
+        <v>0.6794882496339708</v>
       </c>
       <c r="P30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="Q30" s="81" t="n">
-        <v>0.9266579985585059</v>
+        <v>0.9302264963886833</v>
       </c>
       <c r="R30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="S30" s="81" t="n">
-        <v>0.8341155405311302</v>
+        <v>0.8380602613168057</v>
       </c>
       <c r="T30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="U30" s="81" t="n">
-        <v>0.7415730825037545</v>
+        <v>0.7458940262449281</v>
       </c>
       <c r="V30" s="81" t="n">
-        <v>0.7334008721098624</v>
+        <v>0.735317274206018</v>
       </c>
       <c r="W30" s="81" t="n">
-        <v>0.9081335720024537</v>
+        <v>0.9116617860615586</v>
       </c>
       <c r="X30" s="81" t="n">
-        <v>0.7334008721098624</v>
+        <v>0.735317274206018</v>
       </c>
       <c r="Y30" s="81" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="AA30" s="81" t="n">
-        <v>0.7415730825037322</v>
+        <v>0.7458940262449536</v>
       </c>
       <c r="AB30" s="81" t="n"/>
       <c r="AC30" s="81" t="n"/>
@@ -3552,10 +3552,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="35" t="n">
-        <v>0.03055866962748799</v>
+        <v>0.0292887538082677</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>1.003098595254008</v>
+        <v>1.006075179862657</v>
       </c>
       <c r="E31" s="12" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -3595,10 +3595,10 @@
         <v>0.2</v>
       </c>
       <c r="C32" s="35" t="n">
-        <v>0.04614352606951989</v>
+        <v>0.04472610482730612</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>0.9701088393604522</v>
+        <v>0.9733922454569154</v>
       </c>
       <c r="E32" s="12" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -3638,10 +3638,10 @@
         <v>0.4</v>
       </c>
       <c r="C33" s="35" t="n">
-        <v>0.06185293363787992</v>
+        <v>0.06028940692527843</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.9271665536357976</v>
+        <v>0.9306449149489152</v>
       </c>
       <c r="E33" s="12" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -3681,10 +3681,10 @@
         <v>0.8</v>
       </c>
       <c r="C34" s="35" t="n">
-        <v>0.08230164112581073</v>
+        <v>0.08064527859575468</v>
       </c>
       <c r="D34" s="23" t="n">
-        <v>0.8772306793080802</v>
+        <v>0.8808253880172956</v>
       </c>
       <c r="G34" s="31" t="n"/>
       <c r="H34" s="31" t="n"/>
@@ -3722,10 +3722,10 @@
         <v>1.6</v>
       </c>
       <c r="C35" s="35" t="n">
-        <v>0.1060806289009142</v>
+        <v>0.1043688628489069</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>0.8213896462005837</v>
+        <v>0.825034328418603</v>
       </c>
       <c r="E35" s="12" t="n"/>
       <c r="F35" s="73" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="I35" s="56" t="n"/>
       <c r="J35" s="57" t="n"/>
       <c r="K35" s="46" t="n">
-        <v>0.7334008721098624</v>
+        <v>0.735317274206018</v>
       </c>
       <c r="L35" s="13" t="n"/>
       <c r="N35" s="81" t="n"/>
@@ -3771,10 +3771,10 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="35" t="n">
-        <v>0.1326715970473411</v>
+        <v>0.1309360340863796</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.7610848965552799</v>
+        <v>0.7647293801818356</v>
       </c>
       <c r="E36" s="12" t="n"/>
       <c r="F36" s="67" t="inlineStr">
@@ -3820,10 +3820,10 @@
         <v>6.4</v>
       </c>
       <c r="C37" s="35" t="n">
-        <v>0.1613881444974858</v>
+        <v>0.1596526761038878</v>
       </c>
       <c r="D37" s="23" t="n">
-        <v>0.69758507693726</v>
+        <v>0.7011934494385538</v>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="I37" s="49" t="n"/>
       <c r="J37" s="50" t="n"/>
       <c r="K37" s="45" t="n">
-        <v>14.66801744219725</v>
+        <v>14.70634548412036</v>
       </c>
       <c r="L37" s="13" t="n"/>
       <c r="N37" s="81" t="n"/>
@@ -3869,10 +3869,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="36" t="n">
-        <v>0.1916261538394</v>
+        <v>0.1899078812197363</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>0.6758977668734584</v>
+        <v>0.6794882496339708</v>
       </c>
       <c r="E38" s="12" t="n"/>
       <c r="F38" s="68" t="inlineStr">
@@ -3885,7 +3885,7 @@
       <c r="I38" s="69" t="n"/>
       <c r="J38" s="70" t="n"/>
       <c r="K38" s="47" t="n">
-        <v>0.6834008721098623</v>
+        <v>0.685317274206018</v>
       </c>
       <c r="L38" s="13" t="n"/>
       <c r="N38" s="81" t="n"/>
@@ -4191,7 +4191,7 @@
         <v>0.65</v>
       </c>
       <c r="O45" s="91" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="P45" s="88" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0.65</v>
       </c>
       <c r="S45" s="88" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="T45" s="88" t="n"/>
       <c r="U45" s="81" t="n"/>
@@ -4229,10 +4229,10 @@
         <v>0.0125</v>
       </c>
       <c r="C46" s="35" t="n">
-        <v>0.1505724799906355</v>
+        <v>0.1462146818254979</v>
       </c>
       <c r="D46" s="37" t="n">
-        <v>0.1505724799906355</v>
+        <v>0.1462146818254979</v>
       </c>
       <c r="E46" s="31" t="n"/>
       <c r="F46" s="31" t="n"/>
@@ -4252,13 +4252,13 @@
         <v>0.65</v>
       </c>
       <c r="Q46" s="87" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="R46" s="88" t="n">
         <v>0.65</v>
       </c>
       <c r="S46" s="88" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="T46" s="88" t="n"/>
       <c r="U46" s="81" t="n"/>
@@ -4284,10 +4284,10 @@
         <v>0.025</v>
       </c>
       <c r="C47" s="35" t="n">
-        <v>0.1505724799906355</v>
+        <v>0.1462146818254979</v>
       </c>
       <c r="D47" s="37" t="n">
-        <v>0.301144959981271</v>
+        <v>0.2924293636509958</v>
       </c>
       <c r="E47" s="31" t="n"/>
       <c r="F47" s="31" t="n"/>
@@ -4327,10 +4327,10 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="35" t="n">
-        <v>-0.05862972889428464</v>
+        <v>-0.07138918679394435</v>
       </c>
       <c r="D48" s="37" t="n">
-        <v>0.2425152310869864</v>
+        <v>0.2210401768570514</v>
       </c>
       <c r="E48" s="31" t="n"/>
       <c r="F48" s="31" t="n"/>
@@ -4370,10 +4370,10 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="35" t="n">
-        <v>1.168864233152394</v>
+        <v>1.157801326427882</v>
       </c>
       <c r="D49" s="37" t="n">
-        <v>1.41137946423938</v>
+        <v>1.378841503284933</v>
       </c>
       <c r="E49" s="31" t="n"/>
       <c r="F49" s="31" t="n"/>
@@ -4413,10 +4413,10 @@
         <v>0.2</v>
       </c>
       <c r="C50" s="35" t="n">
-        <v>2.356411135254004</v>
+        <v>2.334495314695846</v>
       </c>
       <c r="D50" s="37" t="n">
-        <v>3.767790599493384</v>
+        <v>3.71333681798078</v>
       </c>
       <c r="E50" s="31" t="n"/>
       <c r="F50" s="31" t="n"/>
@@ -4456,10 +4456,10 @@
         <v>0.4</v>
       </c>
       <c r="C51" s="35" t="n">
-        <v>6.134612246379247</v>
+        <v>6.106761501142879</v>
       </c>
       <c r="D51" s="37" t="n">
-        <v>9.902402845872631</v>
+        <v>9.820098319123659</v>
       </c>
       <c r="E51" s="31" t="n"/>
       <c r="F51" s="31" t="n"/>
@@ -4499,10 +4499,10 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="35" t="n">
-        <v>14.26739266506209</v>
+        <v>14.23415055189131</v>
       </c>
       <c r="D52" s="37" t="n">
-        <v>24.16979551093472</v>
+        <v>24.05424887101497</v>
       </c>
       <c r="E52" s="31" t="n"/>
       <c r="F52" s="73" t="inlineStr">
@@ -4548,10 +4548,10 @@
         <v>1.6</v>
       </c>
       <c r="C53" s="35" t="n">
-        <v>31.90916177571227</v>
+        <v>31.88060548496725</v>
       </c>
       <c r="D53" s="37" t="n">
-        <v>56.078957286647</v>
+        <v>55.93485435598222</v>
       </c>
       <c r="E53" s="31" t="n"/>
       <c r="F53" s="67" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="C54" s="35" t="n">
-        <v>68.91971388034735</v>
+        <v>68.91994084201986</v>
       </c>
       <c r="D54" s="37" t="n">
-        <v>124.9986711669943</v>
+        <v>124.8547951980021</v>
       </c>
       <c r="E54" s="31" t="n"/>
       <c r="F54" s="67" t="inlineStr">
@@ -4646,10 +4646,10 @@
         <v>6.4</v>
       </c>
       <c r="C55" s="36" t="n">
-        <v>145.142444841188</v>
+        <v>145.2249845560729</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>270.1411160081823</v>
+        <v>270.079779754075</v>
       </c>
       <c r="E55" s="31" t="n"/>
       <c r="F55" s="68" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="31" t="n">
-        <v>74.35649164732007</v>
+        <v>74.41782790142742</v>
       </c>
       <c r="D56" s="31" t="n">
         <v>344.4976076555024</v>
